--- a/AI/test_data/학적정보.xlsx
+++ b/AI/test_data/학적정보.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/downy/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohyooseok/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B3FA5E-ADAF-9C42-8FF0-0BAF9D9B7DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5991628F-BFF5-D842-B1B4-BBC7D2B9B411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1800" windowWidth="20660" windowHeight="17440" xr2:uid="{EEBB551B-7441-F14E-A16C-95767A95588B}"/>
+    <workbookView xWindow="52420" yWindow="1680" windowWidth="20660" windowHeight="17440" xr2:uid="{EEBB551B-7441-F14E-A16C-95767A95588B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,46 +59,63 @@
     <t>알 수 없는 정보들</t>
   </si>
   <si>
-    <t>함동찬</t>
-  </si>
-  <si>
-    <t>한예진</t>
-  </si>
-  <si>
-    <t>한수연</t>
-  </si>
-  <si>
-    <t>최지은</t>
-  </si>
-  <si>
-    <t>최원웅</t>
-  </si>
-  <si>
-    <t>최원석</t>
-  </si>
-  <si>
-    <t>최다안</t>
-  </si>
-  <si>
-    <t>최가현</t>
-  </si>
-  <si>
-    <t>차민서</t>
-  </si>
-  <si>
-    <t>황유빈</t>
+    <t>서수민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정예빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유도현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장수아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김서준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오유석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이준혁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박하은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최지우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김용빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -130,7 +147,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -146,7 +163,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -465,20 +482,20 @@
   <dimension ref="A4:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -495,14 +512,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -512,84 +529,84 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:6">
       <c r="D17">
-        <v>32214998</v>
+        <v>32228416</v>
       </c>
       <c r="F17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6">
+      <c r="D18">
+        <v>32226704</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6">
+      <c r="D19">
+        <v>32208925</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6">
+      <c r="D20">
+        <v>32219384</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6">
+      <c r="D21">
+        <v>32209230</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6">
+      <c r="D22">
+        <v>32202698</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6">
+      <c r="D23">
+        <v>32224075</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6">
+      <c r="D24">
+        <v>32203946</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6">
+      <c r="D25">
+        <v>32201959</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6">
+      <c r="D26">
+        <v>32226391</v>
+      </c>
+      <c r="F26" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D18">
-        <v>32174906</v>
-      </c>
-      <c r="F18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D19">
-        <v>32214829</v>
-      </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D20">
-        <v>32217804</v>
-      </c>
-      <c r="F20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D21">
-        <v>32214689</v>
-      </c>
-      <c r="F21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D22">
-        <v>32194659</v>
-      </c>
-      <c r="F22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D23">
-        <v>32194658</v>
-      </c>
-      <c r="F23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D24">
-        <v>32174515</v>
-      </c>
-      <c r="F24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D25">
-        <v>32204534</v>
-      </c>
-      <c r="F25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D26">
-        <v>32214442</v>
-      </c>
-      <c r="F26" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -600,6 +617,7 @@
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="E14:E16"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>